--- a/个人基本信息表.xlsx
+++ b/个人基本信息表.xlsx
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
   <si>
     <t>身份证号</t>
   </si>
@@ -460,9 +460,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>15189826521</t>
   </si>
   <si>
     <t>陈祖云</t>
@@ -596,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -610,9 +607,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -935,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1106,8 +1100,8 @@
       </c>
     </row>
     <row r="2" spans="1:46">
-      <c r="A2" s="14" t="s">
-        <v>77</v>
+      <c r="A2" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -1124,14 +1118,14 @@
       <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>70</v>
+      <c r="G2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1142,13 +1136,13 @@
       <c r="L2">
         <v>3</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="14" t="s">
         <v>62</v>
       </c>
       <c r="P2">
@@ -1246,8 +1240,8 @@
       </c>
     </row>
     <row r="3" spans="1:46">
-      <c r="A3" s="14" t="s">
-        <v>78</v>
+      <c r="A3" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -1264,14 +1258,14 @@
       <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>71</v>
+      <c r="G3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1282,14 +1276,14 @@
       <c r="L3">
         <v>3</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="15" t="s">
-        <v>75</v>
+      <c r="O3" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1386,10 +1380,10 @@
       </c>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1401,135 +1395,135 @@
       <c r="E4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12">
+        <v>2</v>
+      </c>
+      <c r="L4" s="12">
+        <v>3</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>1</v>
+      </c>
+      <c r="R4" s="12">
+        <v>2</v>
+      </c>
+      <c r="S4" s="12">
+        <v>2</v>
+      </c>
+      <c r="T4" s="12">
+        <v>8</v>
+      </c>
+      <c r="U4" s="12">
+        <v>1</v>
+      </c>
+      <c r="V4" s="12">
+        <v>2</v>
+      </c>
+      <c r="W4" s="12">
+        <v>1</v>
+      </c>
+      <c r="X4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="13">
-        <v>1</v>
-      </c>
-      <c r="K4" s="13">
-        <v>2</v>
-      </c>
-      <c r="L4" s="13">
-        <v>3</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>1</v>
-      </c>
-      <c r="R4" s="13">
-        <v>2</v>
-      </c>
-      <c r="S4" s="13">
-        <v>2</v>
-      </c>
-      <c r="T4" s="13">
-        <v>8</v>
-      </c>
-      <c r="U4" s="13">
-        <v>1</v>
-      </c>
-      <c r="V4" s="13">
-        <v>2</v>
-      </c>
-      <c r="W4" s="13">
-        <v>1</v>
-      </c>
-      <c r="X4" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AJ4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AK4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AP4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AQ4" s="13" t="s">
+      <c r="AO4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AR4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AS4" s="13" t="s">
+      <c r="AR4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AT4" s="13" t="s">
+      <c r="AT4" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:46">
-      <c r="A5" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1541,135 +1535,135 @@
       <c r="E5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1</v>
+      </c>
+      <c r="K5" s="12">
+        <v>2</v>
+      </c>
+      <c r="L5" s="12">
+        <v>3</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>1</v>
+      </c>
+      <c r="R5" s="12">
+        <v>2</v>
+      </c>
+      <c r="S5" s="12">
+        <v>2</v>
+      </c>
+      <c r="T5" s="12">
+        <v>8</v>
+      </c>
+      <c r="U5" s="12">
+        <v>1</v>
+      </c>
+      <c r="V5" s="12">
+        <v>2</v>
+      </c>
+      <c r="W5" s="12">
+        <v>1</v>
+      </c>
+      <c r="X5" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="12">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="12">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="13">
-        <v>1</v>
-      </c>
-      <c r="K5" s="13">
-        <v>2</v>
-      </c>
-      <c r="L5" s="13">
-        <v>3</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>1</v>
-      </c>
-      <c r="R5" s="13">
-        <v>2</v>
-      </c>
-      <c r="S5" s="13">
-        <v>2</v>
-      </c>
-      <c r="T5" s="13">
-        <v>8</v>
-      </c>
-      <c r="U5" s="13">
-        <v>1</v>
-      </c>
-      <c r="V5" s="13">
-        <v>2</v>
-      </c>
-      <c r="W5" s="13">
-        <v>1</v>
-      </c>
-      <c r="X5" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="13">
-        <v>2</v>
-      </c>
-      <c r="AJ5" s="13">
-        <v>3</v>
-      </c>
-      <c r="AK5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="13">
-        <v>3</v>
-      </c>
-      <c r="AM5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO5" s="13">
-        <v>2</v>
-      </c>
-      <c r="AP5" s="13">
-        <v>2</v>
-      </c>
-      <c r="AQ5" s="13" t="s">
+      <c r="AO5" s="12">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="12">
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AR5" s="13">
-        <v>2</v>
-      </c>
-      <c r="AS5" s="13" t="s">
+      <c r="AR5" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AT5" s="13" t="s">
+      <c r="AT5" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:46">
-      <c r="A6" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1681,127 +1675,127 @@
       <c r="E6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="13">
-        <v>1</v>
-      </c>
-      <c r="K6" s="13">
-        <v>2</v>
-      </c>
-      <c r="L6" s="13">
+      <c r="G6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="K6" s="12">
+        <v>2</v>
+      </c>
+      <c r="L6" s="12">
         <v>3</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>1</v>
-      </c>
-      <c r="R6" s="13">
-        <v>2</v>
-      </c>
-      <c r="S6" s="13">
-        <v>2</v>
-      </c>
-      <c r="T6" s="13">
+      <c r="P6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>1</v>
+      </c>
+      <c r="R6" s="12">
+        <v>2</v>
+      </c>
+      <c r="S6" s="12">
+        <v>2</v>
+      </c>
+      <c r="T6" s="12">
         <v>8</v>
       </c>
-      <c r="U6" s="13">
-        <v>1</v>
-      </c>
-      <c r="V6" s="13">
-        <v>2</v>
-      </c>
-      <c r="W6" s="13">
-        <v>1</v>
-      </c>
-      <c r="X6" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="13">
-        <v>2</v>
-      </c>
-      <c r="AJ6" s="13">
+      <c r="U6" s="12">
+        <v>1</v>
+      </c>
+      <c r="V6" s="12">
+        <v>2</v>
+      </c>
+      <c r="W6" s="12">
+        <v>1</v>
+      </c>
+      <c r="X6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="12">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="12">
         <v>3</v>
       </c>
-      <c r="AK6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="13">
+      <c r="AK6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="12">
         <v>3</v>
       </c>
-      <c r="AM6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="13" t="s">
+      <c r="AM6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AO6" s="13">
-        <v>2</v>
-      </c>
-      <c r="AP6" s="13">
-        <v>2</v>
-      </c>
-      <c r="AQ6" s="13" t="s">
+      <c r="AO6" s="12">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="12">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AR6" s="13">
-        <v>2</v>
-      </c>
-      <c r="AS6" s="13" t="s">
+      <c r="AR6" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AT6" s="13" t="s">
+      <c r="AT6" s="12" t="s">
         <v>50</v>
       </c>
     </row>
